--- a/docs/source/recursos/energia/tabla_ene_pesos_globales.xlsx
+++ b/docs/source/recursos/energia/tabla_ene_pesos_globales.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\energia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFF58B26-8D37-413B-89D1-60B3D76C3BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84367C3B-DE0C-49B1-9118-CEF6E89D2F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_urb_pesos_globales" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tabla_urb_pesos_globales!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Criterio</t>
   </si>
@@ -83,12 +93,18 @@
   </si>
   <si>
     <t>Fuente de energía</t>
+  </si>
+  <si>
+    <t>Residuos agrícolas forestales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +584,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,11 +939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1095,39 @@
         <v>1.0413E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/source/recursos/energia/tabla_ene_pesos_globales.xlsx
+++ b/docs/source/recursos/energia/tabla_ene_pesos_globales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\energia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84367C3B-DE0C-49B1-9118-CEF6E89D2F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E9D108-E8B8-4DB8-8BFA-0728ADBD47DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_urb_pesos_globales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Criterio</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Peso</t>
   </si>
   <si>
-    <t xml:space="preserve">Distancia a carreteras </t>
-  </si>
-  <si>
     <t>Distancia del gasoducto a las  zonas industriales</t>
   </si>
   <si>
@@ -53,30 +50,15 @@
     <t>Distancia a la red eléctrica</t>
   </si>
   <si>
-    <t>Velocidad a 120 m de altura</t>
-  </si>
-  <si>
     <t>Distancia a granjas porcícolas</t>
   </si>
   <si>
-    <t>Distancia a sitios de disposición final</t>
-  </si>
-  <si>
     <t>Distancia a localidades</t>
   </si>
   <si>
-    <t>Distancia de localidades al gasoducto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo de cobertura </t>
-  </si>
-  <si>
     <t>Tenencia de la tierra</t>
   </si>
   <si>
-    <t>Tipo de cobertura</t>
-  </si>
-  <si>
     <t>Hidrocarburos líquidos</t>
   </si>
   <si>
@@ -95,7 +77,28 @@
     <t>Fuente de energía</t>
   </si>
   <si>
-    <t>Residuos agrícolas forestales</t>
+    <t>Carreteras</t>
+  </si>
+  <si>
+    <t>Localidades</t>
+  </si>
+  <si>
+    <t>Distancia del gasoducto a localidades</t>
+  </si>
+  <si>
+    <t>Velocidad</t>
+  </si>
+  <si>
+    <t>Residuos urbanos</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distancia a caminos </t>
+  </si>
+  <si>
+    <t>Residuos vegetales</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +957,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -965,10 +968,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>0.27425100000000002</v>
@@ -976,10 +979,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>0.25582398000000001</v>
@@ -987,10 +990,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>0.138176778</v>
@@ -998,10 +1001,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>9.0714829999999996E-2</v>
@@ -1009,10 +1012,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>6.4715099999999998E-2</v>
@@ -1020,10 +1023,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>5.6550999999999997E-2</v>
@@ -1031,10 +1034,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>2.6091000000000003E-2</v>
@@ -1042,10 +1045,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>2.0466999999999999E-2</v>
@@ -1053,10 +1056,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <v>1.8143219999999998E-2</v>
@@ -1064,10 +1067,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
         <v>1.8143219999999998E-2</v>
@@ -1075,10 +1078,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>1.2222E-2</v>
@@ -1086,10 +1089,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>1.0413E-2</v>
@@ -1097,10 +1100,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>4.0000000000000001E-3</v>
@@ -1108,10 +1111,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>4.0000000000000001E-3</v>
@@ -1119,16 +1122,19 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>2E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
+    <sortCondition descending="1" ref="C2:C16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>